--- a/data/excel/CorporateProfiling1.xlsx
+++ b/data/excel/CorporateProfiling1.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C86646-7C9C-4791-8AEE-443FF63F9AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="169">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -54,15 +56,9 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Verify Register Corporate</t>
-  </si>
-  <si>
     <t>mo</t>
   </si>
   <si>
-    <t>//staging117/backoffice/</t>
-  </si>
-  <si>
     <t>at</t>
   </si>
   <si>
@@ -72,15 +68,9 @@
     <t>DivisionName</t>
   </si>
   <si>
-    <t>Gurgaon1</t>
-  </si>
-  <si>
     <t>BranchName</t>
   </si>
   <si>
-    <t>Shri 01</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -99,9 +89,6 @@
     <t>ChooseGSTDetails</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>22AAAHJUJJUJ9Z0</t>
   </si>
   <si>
@@ -120,9 +107,6 @@
     <t>GSTHolderName</t>
   </si>
   <si>
-    <t>Shree Travel</t>
-  </si>
-  <si>
     <t>Support1</t>
   </si>
   <si>
@@ -174,14 +158,383 @@
     <t>BusinessUnitContactNo</t>
   </si>
   <si>
-    <t>Laxmi@1234</t>
+    <t>Create branch 1</t>
+  </si>
+  <si>
+    <t>test.quadlabs.net/backoffice/</t>
+  </si>
+  <si>
+    <t>Quad@721</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Branch 1</t>
+  </si>
+  <si>
+    <t>Testing division</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test MO 2</t>
+  </si>
+  <si>
+    <t>Test MO 3</t>
+  </si>
+  <si>
+    <t>Test MO 4</t>
+  </si>
+  <si>
+    <t>Test MO 5</t>
+  </si>
+  <si>
+    <t>Test MO 6</t>
+  </si>
+  <si>
+    <t>Test MO 7</t>
+  </si>
+  <si>
+    <t>Test MO 8</t>
+  </si>
+  <si>
+    <t>Test MO 9</t>
+  </si>
+  <si>
+    <t>Test MO 10</t>
+  </si>
+  <si>
+    <t>Test MO 11</t>
+  </si>
+  <si>
+    <t>Test MO 12</t>
+  </si>
+  <si>
+    <t>Test MO 13</t>
+  </si>
+  <si>
+    <t>Test MO 14</t>
+  </si>
+  <si>
+    <t>Test MO 15</t>
+  </si>
+  <si>
+    <t>Test MO 16</t>
+  </si>
+  <si>
+    <t>Test MO 17</t>
+  </si>
+  <si>
+    <t>Test MO 18</t>
+  </si>
+  <si>
+    <t>Test MO 19</t>
+  </si>
+  <si>
+    <t>Test MO 20</t>
+  </si>
+  <si>
+    <t>Test MO 21</t>
+  </si>
+  <si>
+    <t>Test MO 22</t>
+  </si>
+  <si>
+    <t>Test MO 23</t>
+  </si>
+  <si>
+    <t>Test MO 24</t>
+  </si>
+  <si>
+    <t>Test MO 25</t>
+  </si>
+  <si>
+    <t>Test MO 26</t>
+  </si>
+  <si>
+    <t>Test MO 27</t>
+  </si>
+  <si>
+    <t>Test MO 28</t>
+  </si>
+  <si>
+    <t>Test MO 29</t>
+  </si>
+  <si>
+    <t>Test MO 30</t>
+  </si>
+  <si>
+    <t>Test MO 31</t>
+  </si>
+  <si>
+    <t>Test MO 32</t>
+  </si>
+  <si>
+    <t>Test MO 33</t>
+  </si>
+  <si>
+    <t>Test MO 34</t>
+  </si>
+  <si>
+    <t>Test MO 35</t>
+  </si>
+  <si>
+    <t>Test MO 36</t>
+  </si>
+  <si>
+    <t>Test MO 37</t>
+  </si>
+  <si>
+    <t>Test MO 38</t>
+  </si>
+  <si>
+    <t>Test MO 39</t>
+  </si>
+  <si>
+    <t>Test MO 40</t>
+  </si>
+  <si>
+    <t>Create branch 2</t>
+  </si>
+  <si>
+    <t>Create branch 3</t>
+  </si>
+  <si>
+    <t>Create branch 4</t>
+  </si>
+  <si>
+    <t>Create branch 5</t>
+  </si>
+  <si>
+    <t>Create branch 6</t>
+  </si>
+  <si>
+    <t>Create branch 7</t>
+  </si>
+  <si>
+    <t>Create branch 8</t>
+  </si>
+  <si>
+    <t>Create branch 9</t>
+  </si>
+  <si>
+    <t>Create branch 10</t>
+  </si>
+  <si>
+    <t>Create branch 11</t>
+  </si>
+  <si>
+    <t>Create branch 12</t>
+  </si>
+  <si>
+    <t>Create branch 13</t>
+  </si>
+  <si>
+    <t>Create branch 14</t>
+  </si>
+  <si>
+    <t>Create branch 15</t>
+  </si>
+  <si>
+    <t>Create branch 16</t>
+  </si>
+  <si>
+    <t>Create branch 17</t>
+  </si>
+  <si>
+    <t>Create branch 18</t>
+  </si>
+  <si>
+    <t>Create branch 19</t>
+  </si>
+  <si>
+    <t>Create branch 20</t>
+  </si>
+  <si>
+    <t>Create branch 21</t>
+  </si>
+  <si>
+    <t>Create branch 22</t>
+  </si>
+  <si>
+    <t>Create branch 23</t>
+  </si>
+  <si>
+    <t>Create branch 24</t>
+  </si>
+  <si>
+    <t>Create branch 25</t>
+  </si>
+  <si>
+    <t>Create branch 26</t>
+  </si>
+  <si>
+    <t>Create branch 27</t>
+  </si>
+  <si>
+    <t>Create branch 28</t>
+  </si>
+  <si>
+    <t>Create branch 29</t>
+  </si>
+  <si>
+    <t>Create branch 30</t>
+  </si>
+  <si>
+    <t>Create branch 31</t>
+  </si>
+  <si>
+    <t>Create branch 32</t>
+  </si>
+  <si>
+    <t>Create branch 33</t>
+  </si>
+  <si>
+    <t>Create branch 34</t>
+  </si>
+  <si>
+    <t>Create branch 35</t>
+  </si>
+  <si>
+    <t>Create branch 36</t>
+  </si>
+  <si>
+    <t>Create branch 37</t>
+  </si>
+  <si>
+    <t>Create branch 38</t>
+  </si>
+  <si>
+    <t>Create branch 39</t>
+  </si>
+  <si>
+    <t>Create branch 40</t>
+  </si>
+  <si>
+    <t>Branch 2</t>
+  </si>
+  <si>
+    <t>Branch 3</t>
+  </si>
+  <si>
+    <t>Branch 4</t>
+  </si>
+  <si>
+    <t>Branch 5</t>
+  </si>
+  <si>
+    <t>Branch 6</t>
+  </si>
+  <si>
+    <t>Branch 7</t>
+  </si>
+  <si>
+    <t>Branch 8</t>
+  </si>
+  <si>
+    <t>Branch 9</t>
+  </si>
+  <si>
+    <t>Branch 10</t>
+  </si>
+  <si>
+    <t>Branch 11</t>
+  </si>
+  <si>
+    <t>Branch 12</t>
+  </si>
+  <si>
+    <t>Branch 13</t>
+  </si>
+  <si>
+    <t>Branch 14</t>
+  </si>
+  <si>
+    <t>Branch 15</t>
+  </si>
+  <si>
+    <t>Branch 16</t>
+  </si>
+  <si>
+    <t>Branch 17</t>
+  </si>
+  <si>
+    <t>Branch 18</t>
+  </si>
+  <si>
+    <t>Branch 19</t>
+  </si>
+  <si>
+    <t>Branch 20</t>
+  </si>
+  <si>
+    <t>Branch 21</t>
+  </si>
+  <si>
+    <t>Branch 22</t>
+  </si>
+  <si>
+    <t>Branch 23</t>
+  </si>
+  <si>
+    <t>Branch 24</t>
+  </si>
+  <si>
+    <t>Branch 25</t>
+  </si>
+  <si>
+    <t>Branch 26</t>
+  </si>
+  <si>
+    <t>Branch 27</t>
+  </si>
+  <si>
+    <t>Branch 28</t>
+  </si>
+  <si>
+    <t>Branch 29</t>
+  </si>
+  <si>
+    <t>Branch 30</t>
+  </si>
+  <si>
+    <t>Branch 31</t>
+  </si>
+  <si>
+    <t>Branch 32</t>
+  </si>
+  <si>
+    <t>Branch 33</t>
+  </si>
+  <si>
+    <t>Branch 34</t>
+  </si>
+  <si>
+    <t>Branch 35</t>
+  </si>
+  <si>
+    <t>Branch 36</t>
+  </si>
+  <si>
+    <t>Branch 37</t>
+  </si>
+  <si>
+    <t>Branch 38</t>
+  </si>
+  <si>
+    <t>Branch 39</t>
+  </si>
+  <si>
+    <t>Branch 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +552,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -283,9 +642,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -569,25 +927,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -635,59 +993,59 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="12" t="s">
+      <c r="T1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>50</v>
+      <c r="X1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -698,104 +1056,3743 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="4">
         <v>8447422233</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="U2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="W2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>45</v>
+      <c r="Z2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="AA2" s="4">
         <v>8447422233</v>
       </c>
     </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="4">
+        <v>8447422234</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="4">
+        <v>8447422235</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4">
+        <v>8447422236</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="4">
+        <v>8447422237</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="4">
+        <v>8447422238</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="4">
+        <v>8447422239</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4">
+        <v>8447422240</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="4">
+        <v>8447422241</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="4">
+        <v>8447422242</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="4">
+        <v>8447422243</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="4">
+        <v>8447422244</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="4">
+        <v>8447422245</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="4">
+        <v>8447422246</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8447422247</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="4">
+        <v>8447422248</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="4">
+        <v>8447422249</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="4">
+        <v>8447422250</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="4">
+        <v>8447422251</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="4">
+        <v>8447422252</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="4">
+        <v>8447422253</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="4">
+        <v>8447422254</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="4">
+        <v>8447422255</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="4">
+        <v>8447422256</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="4">
+        <v>8447422257</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="4">
+        <v>8447422258</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="4">
+        <v>8447422259</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="4">
+        <v>8447422260</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="4">
+        <v>8447422261</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="4">
+        <v>8447422262</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="4">
+        <v>8447422263</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="4">
+        <v>8447422264</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z33" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="4">
+        <v>8447422265</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="4">
+        <v>8447422266</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="4">
+        <v>8447422267</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="4">
+        <v>8447422268</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="4">
+        <v>8447422269</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="4">
+        <v>8447422270</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="4">
+        <v>8447422271</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="4">
+        <v>8447422272</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z41" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
-      <formula1>"Laxmi@1234"</formula1>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Laxmi@1234,Quad@721"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"saurav_at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F41" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B41" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O41" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41" xr:uid="{E5E751EE-ED4B-4141-BA2C-AB2D4E86E58E}">
+      <formula1>"//staging117/backoffice/,test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I41" xr:uid="{1A96E16A-2CCF-4818-9ECF-E7C732C7C25A}">
+      <formula1>"Shree Travel,Amazon"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
-    <hyperlink ref="R2" r:id="rId3"/>
-    <hyperlink ref="Z2" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="R2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Z2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" display="shubham.natkar@quadlabs.com" xr:uid="{05D06E1B-CAA9-4600-93FA-CE74ED022F01}"/>
+    <hyperlink ref="H3" r:id="rId6" display="Shekhar123@" xr:uid="{69309BE7-5A0E-496A-8179-666DF88516DA}"/>
+    <hyperlink ref="R3" r:id="rId7" xr:uid="{594915B3-23FC-4AA6-940F-72E1BBF18050}"/>
+    <hyperlink ref="Z3" r:id="rId8" xr:uid="{6605992A-0CB5-42C4-958C-1472953FA564}"/>
+    <hyperlink ref="G4" r:id="rId9" display="shubham.natkar@quadlabs.com" xr:uid="{87F4BB32-CB1D-423D-882D-3B9F5BDDFDAF}"/>
+    <hyperlink ref="H4" r:id="rId10" display="Shekhar123@" xr:uid="{1D8E99B4-E194-4F97-98C6-129C89A6A8F1}"/>
+    <hyperlink ref="R4" r:id="rId11" xr:uid="{CCA699C5-83FE-4F1C-8629-8FB4BC529024}"/>
+    <hyperlink ref="Z4" r:id="rId12" xr:uid="{D04F0B84-A99D-43BE-8BA5-16396BDFA015}"/>
+    <hyperlink ref="G5" r:id="rId13" display="shubham.natkar@quadlabs.com" xr:uid="{73C2804B-510C-4FA6-93A5-8F65C1C1EF10}"/>
+    <hyperlink ref="H5" r:id="rId14" display="Shekhar123@" xr:uid="{B0450A5C-1491-48F9-B344-C701C2F27061}"/>
+    <hyperlink ref="R5" r:id="rId15" xr:uid="{80B6F289-572F-417A-BA1B-AB22A296346A}"/>
+    <hyperlink ref="Z5" r:id="rId16" xr:uid="{2B8EE7CF-2645-4E93-92F7-EC4877E32844}"/>
+    <hyperlink ref="G6" r:id="rId17" display="shubham.natkar@quadlabs.com" xr:uid="{A9313943-3E1C-40A1-811A-AA3FE3D712C3}"/>
+    <hyperlink ref="H6" r:id="rId18" display="Shekhar123@" xr:uid="{F76E513D-E0B4-43F5-A397-C936FA91D6B1}"/>
+    <hyperlink ref="R6" r:id="rId19" xr:uid="{545D552E-1FE8-415D-B574-58433093532E}"/>
+    <hyperlink ref="Z6" r:id="rId20" xr:uid="{FFE7E14F-E2E9-45B1-9A5B-46157E912A60}"/>
+    <hyperlink ref="G7" r:id="rId21" display="shubham.natkar@quadlabs.com" xr:uid="{1F134936-461D-41B2-958A-1D69376EFE55}"/>
+    <hyperlink ref="H7" r:id="rId22" display="Shekhar123@" xr:uid="{06684CE1-3F93-42EE-A023-D6EA2288C087}"/>
+    <hyperlink ref="R7" r:id="rId23" xr:uid="{5F1B35D6-778B-4C23-88BC-C5B19522818E}"/>
+    <hyperlink ref="Z7" r:id="rId24" xr:uid="{183E0E74-88DD-454E-90E4-32C9788C8D89}"/>
+    <hyperlink ref="G8" r:id="rId25" display="shubham.natkar@quadlabs.com" xr:uid="{4F5E1721-F2DD-47F7-8429-896D95E5DB07}"/>
+    <hyperlink ref="H8" r:id="rId26" display="Shekhar123@" xr:uid="{396639D4-3330-42CE-818C-8401313692EA}"/>
+    <hyperlink ref="R8" r:id="rId27" xr:uid="{5B6857F5-9E59-4B6E-86B9-67254718A1B4}"/>
+    <hyperlink ref="Z8" r:id="rId28" xr:uid="{82036C76-2913-4E39-8036-B7F3FA9F48C8}"/>
+    <hyperlink ref="G9" r:id="rId29" display="shubham.natkar@quadlabs.com" xr:uid="{5E7309DC-0CC1-4437-8537-E3C73BDF571C}"/>
+    <hyperlink ref="H9" r:id="rId30" display="Shekhar123@" xr:uid="{CAF63FF9-C021-40FE-AA4A-0696011911E2}"/>
+    <hyperlink ref="R9" r:id="rId31" xr:uid="{E80847B0-9101-4402-B67F-F12B23B2DD7E}"/>
+    <hyperlink ref="Z9" r:id="rId32" xr:uid="{C27F4F80-AB23-450E-8C5C-993339E9F82B}"/>
+    <hyperlink ref="G10" r:id="rId33" display="shubham.natkar@quadlabs.com" xr:uid="{DDFB35BD-9282-4C90-8B1A-DB6F0FF36429}"/>
+    <hyperlink ref="H10" r:id="rId34" display="Shekhar123@" xr:uid="{B07B8710-12F3-44FC-B979-9D1AD1F96872}"/>
+    <hyperlink ref="R10" r:id="rId35" xr:uid="{24642F13-551E-4841-A218-2EE9AF9A884B}"/>
+    <hyperlink ref="Z10" r:id="rId36" xr:uid="{3799936C-10C8-46A6-AF0D-7E5D5C10F29E}"/>
+    <hyperlink ref="G11" r:id="rId37" display="shubham.natkar@quadlabs.com" xr:uid="{772BC902-9B2C-454B-98F9-91E2F9C7ADA9}"/>
+    <hyperlink ref="H11" r:id="rId38" display="Shekhar123@" xr:uid="{026C1BCB-E4B5-4457-82E1-D028B828858F}"/>
+    <hyperlink ref="R11" r:id="rId39" xr:uid="{54D4559F-D1FC-44D0-8E77-840118BC07DE}"/>
+    <hyperlink ref="Z11" r:id="rId40" xr:uid="{082DF6B6-F66A-42CB-863F-5E576B05A77C}"/>
+    <hyperlink ref="G12" r:id="rId41" display="shubham.natkar@quadlabs.com" xr:uid="{E3B37A5C-51A8-4A71-B64C-7919531FE3DB}"/>
+    <hyperlink ref="H12" r:id="rId42" display="Shekhar123@" xr:uid="{7524E7C9-6C29-42EA-824F-2301D4830226}"/>
+    <hyperlink ref="R12" r:id="rId43" xr:uid="{A4F0D14F-F4CA-46D0-BC3A-B38D81EE9CBC}"/>
+    <hyperlink ref="Z12" r:id="rId44" xr:uid="{BD9BED79-995E-4B8B-A257-DF0662A9DF90}"/>
+    <hyperlink ref="G13" r:id="rId45" display="shubham.natkar@quadlabs.com" xr:uid="{2ED4C505-C1DC-4A2A-94AE-9FF184089462}"/>
+    <hyperlink ref="H13" r:id="rId46" display="Shekhar123@" xr:uid="{3BCEAD30-8070-4C96-8CA0-DF9ADCE8BE06}"/>
+    <hyperlink ref="R13" r:id="rId47" xr:uid="{748D4B80-BA1F-411C-BA73-1A00181FB573}"/>
+    <hyperlink ref="Z13" r:id="rId48" xr:uid="{9A9B27F9-AB90-49D1-BA53-394413EEE203}"/>
+    <hyperlink ref="G14" r:id="rId49" display="shubham.natkar@quadlabs.com" xr:uid="{45F9E312-67BC-42C8-AE51-1629E4E6FC1F}"/>
+    <hyperlink ref="H14" r:id="rId50" display="Shekhar123@" xr:uid="{8ED16FA1-C5CC-4898-9D2B-210CE61E9270}"/>
+    <hyperlink ref="R14" r:id="rId51" xr:uid="{F0F7459D-B829-445E-9702-8F5FDA13AF20}"/>
+    <hyperlink ref="Z14" r:id="rId52" xr:uid="{C49C01C9-A34A-4948-B1EC-6FA8AD0C1869}"/>
+    <hyperlink ref="G15" r:id="rId53" display="shubham.natkar@quadlabs.com" xr:uid="{7B3739A9-5566-4984-95EB-16F8BA1CA0E2}"/>
+    <hyperlink ref="H15" r:id="rId54" display="Shekhar123@" xr:uid="{E033F6BB-33A8-41A0-9D73-5F1450F95F07}"/>
+    <hyperlink ref="R15" r:id="rId55" xr:uid="{2D140576-6364-4F46-ABE2-67285EF33499}"/>
+    <hyperlink ref="Z15" r:id="rId56" xr:uid="{0349E728-DF98-4787-8D72-6869D980B3AC}"/>
+    <hyperlink ref="G16" r:id="rId57" display="shubham.natkar@quadlabs.com" xr:uid="{4999BFD1-5180-4273-A51D-7076330ADD4F}"/>
+    <hyperlink ref="H16" r:id="rId58" display="Shekhar123@" xr:uid="{6380504C-4ACA-4396-A64D-A46EF2916BD3}"/>
+    <hyperlink ref="R16" r:id="rId59" xr:uid="{95E01A94-F766-4449-B993-7AA3BBD3F08A}"/>
+    <hyperlink ref="Z16" r:id="rId60" xr:uid="{862988E7-4DBE-4352-B4D3-ED55D67A1555}"/>
+    <hyperlink ref="G17" r:id="rId61" display="shubham.natkar@quadlabs.com" xr:uid="{7CDB81F7-ECEE-4AEA-8504-7C9B3029DEC7}"/>
+    <hyperlink ref="H17" r:id="rId62" display="Shekhar123@" xr:uid="{FF8DE41B-C963-4901-B366-184780404D15}"/>
+    <hyperlink ref="R17" r:id="rId63" xr:uid="{45C90D7E-5E09-4625-9AE7-7931F7769AAE}"/>
+    <hyperlink ref="Z17" r:id="rId64" xr:uid="{9D145850-D701-4332-BAA6-3866E3BEA625}"/>
+    <hyperlink ref="G18" r:id="rId65" display="shubham.natkar@quadlabs.com" xr:uid="{A3DDAF64-1749-4524-AF9B-21B6B2ECC975}"/>
+    <hyperlink ref="H18" r:id="rId66" display="Shekhar123@" xr:uid="{DD50712B-F9EA-4044-9BBB-1638A1C02457}"/>
+    <hyperlink ref="R18" r:id="rId67" xr:uid="{8C9BC983-D97D-4963-BE3A-B8B306100337}"/>
+    <hyperlink ref="Z18" r:id="rId68" xr:uid="{6934F6ED-74C4-4203-8326-302EFDD605FB}"/>
+    <hyperlink ref="G19" r:id="rId69" display="shubham.natkar@quadlabs.com" xr:uid="{9FC24E53-621A-4200-9788-D7AAFEAA7B0D}"/>
+    <hyperlink ref="H19" r:id="rId70" display="Shekhar123@" xr:uid="{AE7D61F6-1D9C-4EA1-A11E-20A9A8DC2F05}"/>
+    <hyperlink ref="R19" r:id="rId71" xr:uid="{DFEFAAB8-1F0F-4F7E-B2F5-65ACBA0E186B}"/>
+    <hyperlink ref="Z19" r:id="rId72" xr:uid="{F936F374-2771-48FA-AF88-DAE04BE87777}"/>
+    <hyperlink ref="G20" r:id="rId73" display="shubham.natkar@quadlabs.com" xr:uid="{7E9D3A31-42C2-4D2F-9D71-1C84F044A330}"/>
+    <hyperlink ref="H20" r:id="rId74" display="Shekhar123@" xr:uid="{A51519F8-9DF4-489A-B2FB-22261AFC8D3C}"/>
+    <hyperlink ref="R20" r:id="rId75" xr:uid="{EC2B6D25-DAEA-41EC-A1BC-BCEE5354E416}"/>
+    <hyperlink ref="Z20" r:id="rId76" xr:uid="{D72DD3D9-B3AA-4221-8136-E12991F63002}"/>
+    <hyperlink ref="G21" r:id="rId77" display="shubham.natkar@quadlabs.com" xr:uid="{006C11A9-95BD-4E35-A8A0-4017ECBAC425}"/>
+    <hyperlink ref="H21" r:id="rId78" display="Shekhar123@" xr:uid="{D0851D3A-248B-4D3E-BFAF-345EE80A8A58}"/>
+    <hyperlink ref="R21" r:id="rId79" xr:uid="{C075D6C0-77B1-496A-A6AF-DF4EAFAE874A}"/>
+    <hyperlink ref="Z21" r:id="rId80" xr:uid="{F1567FD4-A5E2-4C79-8DA1-396E70C8CD2C}"/>
+    <hyperlink ref="G22" r:id="rId81" display="shubham.natkar@quadlabs.com" xr:uid="{6B3BBFFC-931B-4807-BC9C-2292F157BCB9}"/>
+    <hyperlink ref="H22" r:id="rId82" display="Shekhar123@" xr:uid="{478F73F8-C476-4115-BDC6-314F7ECC14E9}"/>
+    <hyperlink ref="R22" r:id="rId83" xr:uid="{E302E416-95CA-4547-80C2-21BE2E08CEE5}"/>
+    <hyperlink ref="Z22" r:id="rId84" xr:uid="{5C084754-293B-4CBA-B9B9-6BFBA8729ABA}"/>
+    <hyperlink ref="G23" r:id="rId85" display="shubham.natkar@quadlabs.com" xr:uid="{1E139501-376F-4118-9F13-5D8F0F5AF5FC}"/>
+    <hyperlink ref="H23" r:id="rId86" display="Shekhar123@" xr:uid="{F33B836A-41C1-42DB-AE58-1A4E21302F4D}"/>
+    <hyperlink ref="R23" r:id="rId87" xr:uid="{9A72371A-AAD6-4CFE-8D6C-EB9AEECD0A25}"/>
+    <hyperlink ref="Z23" r:id="rId88" xr:uid="{F89438AC-5156-4B54-82E9-DE73996C654E}"/>
+    <hyperlink ref="G24" r:id="rId89" display="shubham.natkar@quadlabs.com" xr:uid="{F72AF76E-7B84-4252-941D-D5478534FDAC}"/>
+    <hyperlink ref="H24" r:id="rId90" display="Shekhar123@" xr:uid="{C705E7E5-98AA-4BC8-92B6-600E1E686A57}"/>
+    <hyperlink ref="R24" r:id="rId91" xr:uid="{BF229718-F6EC-4F3C-93FC-74CDACBD1DA3}"/>
+    <hyperlink ref="Z24" r:id="rId92" xr:uid="{C251C31D-FF5A-43C1-A441-6178673B9C2A}"/>
+    <hyperlink ref="G25" r:id="rId93" display="shubham.natkar@quadlabs.com" xr:uid="{B3818404-743B-4371-89C1-203E42CA1B7C}"/>
+    <hyperlink ref="H25" r:id="rId94" display="Shekhar123@" xr:uid="{833BEDED-769E-4A76-B097-8831E476C1E2}"/>
+    <hyperlink ref="R25" r:id="rId95" xr:uid="{EB6FD65E-56C4-4C44-8AF9-389160BC43AE}"/>
+    <hyperlink ref="Z25" r:id="rId96" xr:uid="{38CE560E-E1C7-4C79-A970-FEC450381773}"/>
+    <hyperlink ref="G26" r:id="rId97" display="shubham.natkar@quadlabs.com" xr:uid="{DC9BF947-E4CE-48D5-B0D6-A793806E0ED5}"/>
+    <hyperlink ref="H26" r:id="rId98" display="Shekhar123@" xr:uid="{BA0B2235-69B4-429D-8848-09447CEEA3DD}"/>
+    <hyperlink ref="R26" r:id="rId99" xr:uid="{D911446A-543A-4A66-BEB0-180396C105E8}"/>
+    <hyperlink ref="Z26" r:id="rId100" xr:uid="{7276CD58-F710-4B8E-9571-A5527573FE3E}"/>
+    <hyperlink ref="G27" r:id="rId101" display="shubham.natkar@quadlabs.com" xr:uid="{464B9962-0D2F-4481-97B9-0DB12C719574}"/>
+    <hyperlink ref="H27" r:id="rId102" display="Shekhar123@" xr:uid="{AD01F161-6234-4FBF-A3F6-5814B7B7BE8F}"/>
+    <hyperlink ref="R27" r:id="rId103" xr:uid="{E49D4F6D-55A5-4B50-8B1C-14BD0D272F1C}"/>
+    <hyperlink ref="Z27" r:id="rId104" xr:uid="{004570EE-2891-4398-96FD-5305E48DC46A}"/>
+    <hyperlink ref="G28" r:id="rId105" display="shubham.natkar@quadlabs.com" xr:uid="{B4E1CE0C-3B60-4496-9A14-78EA2309A7CA}"/>
+    <hyperlink ref="H28" r:id="rId106" display="Shekhar123@" xr:uid="{6E05D100-24C0-485C-91A6-7329EE62D59C}"/>
+    <hyperlink ref="R28" r:id="rId107" xr:uid="{E7FABAD8-F012-41D3-836C-F59A9FAD7F61}"/>
+    <hyperlink ref="Z28" r:id="rId108" xr:uid="{ADF7823D-62C0-4B27-A4DE-986717752FB3}"/>
+    <hyperlink ref="G29" r:id="rId109" display="shubham.natkar@quadlabs.com" xr:uid="{2CDADB0C-31B1-49CE-8989-DE1F5E453D2F}"/>
+    <hyperlink ref="H29" r:id="rId110" display="Shekhar123@" xr:uid="{636C161F-6CCB-4A5D-AD98-5CAE90F7D195}"/>
+    <hyperlink ref="R29" r:id="rId111" xr:uid="{59D35FB2-3677-4858-84C2-1E0042C847C6}"/>
+    <hyperlink ref="Z29" r:id="rId112" xr:uid="{FF1364E0-7F77-4EEE-B536-FA1D4529120B}"/>
+    <hyperlink ref="G30" r:id="rId113" display="shubham.natkar@quadlabs.com" xr:uid="{6FA43110-9B62-4EF1-804C-BA4B7CB51B76}"/>
+    <hyperlink ref="H30" r:id="rId114" display="Shekhar123@" xr:uid="{0FD6D4DE-3FBC-430C-919D-3B8D40E9CCA4}"/>
+    <hyperlink ref="R30" r:id="rId115" xr:uid="{A6D25BBA-EBC3-4775-B68B-6CA0667DF967}"/>
+    <hyperlink ref="Z30" r:id="rId116" xr:uid="{F5F2F82B-8336-4D2E-B8C3-0D34B9CD63AE}"/>
+    <hyperlink ref="G31" r:id="rId117" display="shubham.natkar@quadlabs.com" xr:uid="{575B2839-596F-48C0-8253-6CE6CA9FDC9E}"/>
+    <hyperlink ref="H31" r:id="rId118" display="Shekhar123@" xr:uid="{BD3456A0-8155-409D-86DC-601083A452E2}"/>
+    <hyperlink ref="R31" r:id="rId119" xr:uid="{59369B31-AED8-4FB6-ABEF-026B12CA72FC}"/>
+    <hyperlink ref="Z31" r:id="rId120" xr:uid="{359CF4EA-8940-4931-BF34-105718F69411}"/>
+    <hyperlink ref="G32" r:id="rId121" display="shubham.natkar@quadlabs.com" xr:uid="{8476DDF1-4FA8-4D08-9E72-62C1DFF2ECAB}"/>
+    <hyperlink ref="H32" r:id="rId122" display="Shekhar123@" xr:uid="{01C24342-6336-4319-9C1E-FE00AEE069C4}"/>
+    <hyperlink ref="R32" r:id="rId123" xr:uid="{0F75282D-3E4B-49C6-AD25-42E831117E85}"/>
+    <hyperlink ref="Z32" r:id="rId124" xr:uid="{A84D5115-9C01-40DC-92E3-1036C676FF93}"/>
+    <hyperlink ref="G33" r:id="rId125" display="shubham.natkar@quadlabs.com" xr:uid="{ECD0B20B-3319-4FD6-B591-1DF7DC5B9EEC}"/>
+    <hyperlink ref="H33" r:id="rId126" display="Shekhar123@" xr:uid="{652A5FED-634D-4841-B898-C052D0E86564}"/>
+    <hyperlink ref="R33" r:id="rId127" xr:uid="{4D75C159-9CF0-43C3-9041-AA53CBE912C3}"/>
+    <hyperlink ref="Z33" r:id="rId128" xr:uid="{76EE37AF-58ED-4E80-85D0-275A97A39A9E}"/>
+    <hyperlink ref="G34" r:id="rId129" display="shubham.natkar@quadlabs.com" xr:uid="{616C7526-F7BA-4906-B192-264FB14CAFE3}"/>
+    <hyperlink ref="H34" r:id="rId130" display="Shekhar123@" xr:uid="{23C6E0FB-658B-4834-85DF-EEA4EC1B7586}"/>
+    <hyperlink ref="R34" r:id="rId131" xr:uid="{BFB6FB70-102B-4D2F-A082-97EF800BEEDF}"/>
+    <hyperlink ref="Z34" r:id="rId132" xr:uid="{3F6E445B-14FF-4ED3-85E5-7CC27E5B42A3}"/>
+    <hyperlink ref="G35" r:id="rId133" display="shubham.natkar@quadlabs.com" xr:uid="{1F9F5595-8DCD-4E20-9993-7B08CD782FBA}"/>
+    <hyperlink ref="H35" r:id="rId134" display="Shekhar123@" xr:uid="{85EC9A08-02E1-418C-B92C-D2FC65470658}"/>
+    <hyperlink ref="R35" r:id="rId135" xr:uid="{F4CBE2F5-18E3-4BAA-9D80-4A97B6E0A18D}"/>
+    <hyperlink ref="Z35" r:id="rId136" xr:uid="{3851D77D-1FDC-4B3A-AE8D-4D483EB4840E}"/>
+    <hyperlink ref="G36" r:id="rId137" display="shubham.natkar@quadlabs.com" xr:uid="{65C5D92F-CFA9-41A7-B32C-CF1A5898CE33}"/>
+    <hyperlink ref="H36" r:id="rId138" display="Shekhar123@" xr:uid="{42D67B59-8623-4CE4-A042-92985F81575D}"/>
+    <hyperlink ref="R36" r:id="rId139" xr:uid="{ACD77B91-8B71-4080-95F0-F49B5C626FCE}"/>
+    <hyperlink ref="Z36" r:id="rId140" xr:uid="{07CFB0F2-8330-464D-BF6C-3A9D38CD531F}"/>
+    <hyperlink ref="G37" r:id="rId141" display="shubham.natkar@quadlabs.com" xr:uid="{FB3F1E7A-741C-49F8-9B1D-457D0418B233}"/>
+    <hyperlink ref="H37" r:id="rId142" display="Shekhar123@" xr:uid="{48E94B5D-E593-4756-8E1F-B2D933692599}"/>
+    <hyperlink ref="R37" r:id="rId143" xr:uid="{03563E83-6DF8-4E59-8CEE-6241F70A666D}"/>
+    <hyperlink ref="Z37" r:id="rId144" xr:uid="{09E8048B-A8CC-4F68-A9AE-A46FE63999BC}"/>
+    <hyperlink ref="G38" r:id="rId145" display="shubham.natkar@quadlabs.com" xr:uid="{DE5B31E0-202A-45C4-BA94-90F123A1E9DA}"/>
+    <hyperlink ref="H38" r:id="rId146" display="Shekhar123@" xr:uid="{B06CB0FF-DDDA-4795-B143-C9DE2832E618}"/>
+    <hyperlink ref="R38" r:id="rId147" xr:uid="{6A592F7C-811C-4ACA-8E51-C472C0923D31}"/>
+    <hyperlink ref="Z38" r:id="rId148" xr:uid="{297032FE-C108-4E24-90BD-E04D2E9AE5A8}"/>
+    <hyperlink ref="G39" r:id="rId149" display="shubham.natkar@quadlabs.com" xr:uid="{D770F605-8C8A-4D59-BD4E-FE4D3A11FC28}"/>
+    <hyperlink ref="H39" r:id="rId150" display="Shekhar123@" xr:uid="{1BCB4A62-8275-4B57-B1D7-2C08D47BCDDC}"/>
+    <hyperlink ref="R39" r:id="rId151" xr:uid="{0E5E5255-5988-45EC-A7A5-05D44363D9E0}"/>
+    <hyperlink ref="Z39" r:id="rId152" xr:uid="{50DB6E5A-0F0C-4270-B1C9-50C77F454CC8}"/>
+    <hyperlink ref="G40" r:id="rId153" display="shubham.natkar@quadlabs.com" xr:uid="{D2F3EA4E-55ED-4C40-85D8-0479942A5087}"/>
+    <hyperlink ref="H40" r:id="rId154" display="Shekhar123@" xr:uid="{8E7F2EF6-0123-4A7A-8BB9-9588996B072C}"/>
+    <hyperlink ref="R40" r:id="rId155" xr:uid="{F99BCD0D-6F26-4F80-8582-4409DE995FDC}"/>
+    <hyperlink ref="Z40" r:id="rId156" xr:uid="{D44498C9-BC77-4645-8F07-12214FD656B1}"/>
+    <hyperlink ref="G41" r:id="rId157" display="shubham.natkar@quadlabs.com" xr:uid="{AF0D8E6D-7C07-47B9-B8BE-DC715915F3F7}"/>
+    <hyperlink ref="H41" r:id="rId158" display="Shekhar123@" xr:uid="{320D3054-BE33-499F-88AF-96C0FC5B7C1A}"/>
+    <hyperlink ref="R41" r:id="rId159" xr:uid="{6EC9ACB5-C117-4145-9416-65073F6F822B}"/>
+    <hyperlink ref="Z41" r:id="rId160" xr:uid="{CA7112DD-0AB5-4EDD-BDDC-A7E597805C1E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D532560F-7ECB-42D2-BB3B-850C44B49232}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="4">
+        <v>8447422233</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>8447422233</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D9275B25-30DB-4975-A7EA-9785079F28A6}">
+      <formula1>"Shree Travel,Amazon"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{7FBD62DF-20AC-4028-B65F-4A7B814E70EB}">
+      <formula1>"//staging117/backoffice/,test.quadlabs.net/backoffice/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{44F2972C-39D5-4FF0-946F-CD6693ADCAA2}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{5EA48976-BB40-4821-BC39-F6DE5F20BB0C}">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{0F9941CF-0D33-4CCA-A902-1E5398021330}">
+      <formula1>"at"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{4E17CC47-DFAE-4568-9941-FD358E82A98F}">
+      <formula1>"saurav_at"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{619BA5A1-056C-49A2-A3FF-7A560920D93B}">
+      <formula1>"Laxmi@1234,Quad@721"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{62B2BF44-7173-4642-B118-82E3B9A03B6D}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{FCD8FB03-F9FB-435E-A679-E962E2BDE5E2}"/>
+    <hyperlink ref="R2" r:id="rId3" xr:uid="{4444BD4A-189F-4FCC-BE12-E9332388801C}"/>
+    <hyperlink ref="Z2" r:id="rId4" xr:uid="{F0A5CCA7-5181-4346-BD2F-8CDD32890C85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
